--- a/medicine/Handicap/Le_Huitième_Jour_(film,_1996)/Le_Huitième_Jour_(film,_1996).xlsx
+++ b/medicine/Handicap/Le_Huitième_Jour_(film,_1996)/Le_Huitième_Jour_(film,_1996).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Huiti%C3%A8me_Jour_(film,_1996)</t>
+          <t>Le_Huitième_Jour_(film,_1996)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Huitième Jour est un film franco-belge[1] écrit et réalisé par Jaco Van Dormael, sorti en 1996.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Huitième Jour est un film franco-belge écrit et réalisé par Jaco Van Dormael, sorti en 1996.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Huiti%C3%A8me_Jour_(film,_1996)</t>
+          <t>Le_Huitième_Jour_(film,_1996)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Harry (Daniel Auteuil) est un homme seul qui se voue sept jours sur sept à son travail. Tout va basculer quand il rencontre Georges (Pascal Duquenne), handicapé mental atteinte de trisomie 21, qui vit dans l'instant. Ces deux êtres que tout oppose vont devenir inséparables.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Huiti%C3%A8me_Jour_(film,_1996)</t>
+          <t>Le_Huitième_Jour_(film,_1996)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Georges (Pascal Duquenne) se voit comme un Mongol (habitant de la Mongolie) et non pas comme étant atteint de trisomie 21. Il veut à tout prix retrouver sa mère dont il n'a que l'adresse et malgré la surveillance excessive des gardiens de la résidence dans laquelle il vit, il parvient à s’enfuir avec le chien de garde. Harry (Daniel Auteuil), est un homme qui se voue corps et âme à son boulot sept jours sur sept depuis qu'il a perdu sa femme (Miou Miou) et la garde de ses deux filles avec lesquelles il aimerait passer plus de temps.
 Alors qu'il rentre chez lui et pense sérieusement à mettre fin à sa vie en provoquant un accident de la route, il percute le chien qui accompagnait Georges, qui le voit comme ami car il est le premier et le seul qui accepte de l'emmener avec lui. Après avoir enterré le chien dans le jardin, Georges demande à Harry de l'accompagner voir sa mère, mais Harry refuse et jure de le ramener à la résidence, endroit où Georges ne peut plus vivre.
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_Huiti%C3%A8me_Jour_(film,_1996)</t>
+          <t>Le_Huitième_Jour_(film,_1996)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Titre : Le Huitième Jour
 Réalisation : Jaco Van Dormael
@@ -611,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Le_Huiti%C3%A8me_Jour_(film,_1996)</t>
+          <t>Le_Huitième_Jour_(film,_1996)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -629,7 +647,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Daniel Auteuil : Harry
 Pascal Duquenne : Georges
@@ -653,7 +673,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Le_Huiti%C3%A8me_Jour_(film,_1996)</t>
+          <t>Le_Huitième_Jour_(film,_1996)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -671,12 +691,14 @@
           <t>Symbolique du film</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le réalisateur a voulu provoquer chez le spectateur une prise de conscience sur la stigmatisation du handicap dans la société. Ainsi, lorsque Georges et Harry vont au restaurant, ce premier trouve une serveuse jolie, flirte avec elle et, quand il enlève ses lunettes, celle-ci le regarde d’un air effrayé, elle est désolée pour lui. Georges se roule alors par terre de colère, de tristesse. Ce passage du film nous évoque à quel point les personnes vivant avec une déficience intellectuelle telle que la trisomie 21 sont vulnérables au rejet. Elles veulent être comme tout le monde, vivre les mêmes choses, être amoureux, se marier, avoir des enfants, un emploi… Mais à cause de leur handicap, plusieurs de ces choses leur sont impossibles. Elles vivent les mêmes émotions que n'importe quelle autre personne. Seulement, elles n'ont pas le filtre social, l'inhibition, la gêne. Elles sont totalement ouvertes et authentiques dans l'expression de leurs sentiments.
 Un autre passage du film amène une réflexion. La mère de Georges est décédée et celui-ci veut aller retrouver sa sœur. Cette dernière a une famille et ne peut pas accueillir Georges dans sa maison. Celui-ci fait une crise et, plus tard dans le film, tente d'aller retrouver sa mère au ciel. Cet extrait montre à quel point de telles personnes se retrouvent dépourvues quand leurs parents ne sont plus en mesure d'assumer la dispensation de soins. Souvent, les frères et sœurs se retrouvent avec cette responsabilité. Mais dans bien des cas, ces frères et sœurs ont une vie de famille à eux et ne veulent pas avoir la charge d'un trisomique. 
 Dans ce film, le handicap de Georges est considéré d’une façon humoristique, comme un univers différent et émerveillé (Georges se prend pour un mongol venant d’un pays où l’euphorie, la joie et le bonheur sont mis en avant).
-Cet univers est en contradiction avec celui d’Harry car il a tendance à confondre sa vie professionnelle et personnelle. Il cumule ainsi les erreurs, il oublie les jours importants au sein de sa famille. Sa rencontre avec Georges, va lui faire prendre conscience des valeurs de la vie (amour, générosité, bonheur)[2].
+Cet univers est en contradiction avec celui d’Harry car il a tendance à confondre sa vie professionnelle et personnelle. Il cumule ainsi les erreurs, il oublie les jours importants au sein de sa famille. Sa rencontre avec Georges, va lui faire prendre conscience des valeurs de la vie (amour, générosité, bonheur).
 Enfin, ce film illustre la richesse et la profondeur que peuvent apporter les personnes ayant une déficience intellectuelle. Non seulement elles, mais toutes personnes différentes. Ces personnes nous ramènent à l'essentiel, quand nous nous laissons toucher par elles.
 </t>
         </is>
@@ -688,7 +710,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Le_Huiti%C3%A8me_Jour_(film,_1996)</t>
+          <t>Le_Huitième_Jour_(film,_1996)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -706,7 +728,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Le 3 octobre 1998, pour une émission de deux timbres-poste sur le « film belge contemporain », La Poste de Belgique émet un timbre sur le Huitième Jour avec l'image des acteurs Daniel Auteuil et Pascal Duquenne marchant dans un champ.
 Le routier corrigeant Harry, après que Georges lui a fait un bras d'honneur, est interprété par Rémy Julienne. Cascadeur de renom, il a notamment collaboré sur plusieurs films de la saga James Bond.
@@ -722,7 +746,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Le_Huiti%C3%A8me_Jour_(film,_1996)</t>
+          <t>Le_Huitième_Jour_(film,_1996)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -742,11 +766,50 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Distinctions
-Festival de Cannes 1996 : prix d'interprétation masculine du Festival de Cannes pour Daniel Auteuil et Pascal Duquenne
-Grand Prix Hydro-Québec, Festival du cinéma international en Abitibi-Témiscamingue, 1996.
-Nominations
-Golden Globes 1997 : nomination au Golden Globe du meilleur film en langue étrangère
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Festival de Cannes 1996 : prix d'interprétation masculine du Festival de Cannes pour Daniel Auteuil et Pascal Duquenne
+Grand Prix Hydro-Québec, Festival du cinéma international en Abitibi-Témiscamingue, 1996.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Le_Huitième_Jour_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Huiti%C3%A8me_Jour_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Golden Globes 1997 : nomination au Golden Globe du meilleur film en langue étrangère
 César 1997 : nomination au César du meilleur acteur pour Daniel Auteuil</t>
         </is>
       </c>
